--- a/raw_data/20200818_saline/20200818_Sensor3_Test_57.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_57.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0994E66F-73DB-4314-86C3-0C3B70854B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>50954.383077</v>
+        <v>50954.383076999999</v>
       </c>
       <c r="B2" s="1">
         <v>14.153995</v>
       </c>
       <c r="C2" s="1">
-        <v>1146.900000</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-256.754000</v>
+        <v>-256.75400000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>50964.754921</v>
@@ -496,193 +912,193 @@
         <v>14.156876</v>
       </c>
       <c r="H2" s="1">
-        <v>1168.160000</v>
+        <v>1168.1600000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.867000</v>
+        <v>-214.86699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>50974.982954</v>
+        <v>50974.982953999999</v>
       </c>
       <c r="L2" s="1">
-        <v>14.159717</v>
+        <v>14.159717000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.920000</v>
+        <v>1195.92</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.712000</v>
+        <v>-149.71199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>50985.195549</v>
+        <v>50985.195548999996</v>
       </c>
       <c r="Q2" s="1">
         <v>14.162554</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.650000</v>
+        <v>1203.6500000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.733000</v>
+        <v>-127.733</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>50995.402226</v>
+        <v>50995.402225999998</v>
       </c>
       <c r="V2" s="1">
-        <v>14.165390</v>
+        <v>14.16539</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.900000</v>
+        <v>1210.9000000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.911000</v>
+        <v>-106.911</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>51005.180390</v>
+        <v>51005.180390000001</v>
       </c>
       <c r="AA2" s="1">
         <v>14.168106</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.226300</v>
+        <v>-90.226299999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>51015.418774</v>
+        <v>51015.418773999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.170950</v>
+        <v>14.170949999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.858300</v>
+        <v>-85.8583</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>51025.881383</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.173856</v>
+        <v>14.173856000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.636800</v>
+        <v>-89.636799999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>51036.147615</v>
+        <v>51036.147615000002</v>
       </c>
       <c r="AP2" s="1">
         <v>14.176708</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.900000</v>
+        <v>-101.9</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>51047.159260</v>
+        <v>51047.15926</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.179766</v>
+        <v>14.179766000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.610000</v>
+        <v>-121.61</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>51058.255260</v>
+        <v>51058.255259999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.182849</v>
+        <v>14.182848999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1256.160000</v>
+        <v>1256.1600000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.381000</v>
+        <v>-139.381</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>51069.194558</v>
+        <v>51069.194558000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.185887</v>
+        <v>14.185886999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1296.670000</v>
+        <v>1296.67</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.295000</v>
+        <v>-222.29499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>51080.242415</v>
+        <v>51080.242415000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.188956</v>
+        <v>14.188955999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.070000</v>
+        <v>1367.07</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.221000</v>
+        <v>-360.221</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>51091.659824</v>
+        <v>51091.659824000002</v>
       </c>
       <c r="BO2" s="1">
         <v>14.192128</v>
       </c>
       <c r="BP2" s="1">
-        <v>1482.590000</v>
+        <v>1482.59</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-584.631000</v>
+        <v>-584.63099999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>51102.297026</v>
@@ -691,13 +1107,13 @@
         <v>14.195083</v>
       </c>
       <c r="BU2" s="1">
-        <v>1616.380000</v>
+        <v>1616.38</v>
       </c>
       <c r="BV2" s="1">
-        <v>-837.352000</v>
+        <v>-837.35199999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>51112.998709</v>
@@ -706,75 +1122,75 @@
         <v>14.198055</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.130000</v>
+        <v>1770.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1112.960000</v>
+        <v>-1112.96</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>51123.944944</v>
+        <v>51123.944944000003</v>
       </c>
       <c r="CD2" s="1">
         <v>14.201096</v>
       </c>
       <c r="CE2" s="1">
-        <v>2193.110000</v>
+        <v>2193.11</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1778.280000</v>
+        <v>-1778.28</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>50954.771970</v>
+        <v>50954.771970000002</v>
       </c>
       <c r="B3" s="1">
-        <v>14.154103</v>
+        <v>14.154102999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1146.780000</v>
+        <v>1146.78</v>
       </c>
       <c r="D3" s="1">
-        <v>-256.446000</v>
+        <v>-256.44600000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>50965.172588</v>
+        <v>50965.172588000001</v>
       </c>
       <c r="G3" s="1">
-        <v>14.156992</v>
+        <v>14.156992000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1168.210000</v>
+        <v>1168.21</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.354000</v>
+        <v>-215.35400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>50975.333099</v>
+        <v>50975.333099000003</v>
       </c>
       <c r="L3" s="1">
         <v>14.159815</v>
       </c>
       <c r="M3" s="1">
-        <v>1196.130000</v>
+        <v>1196.1300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.456000</v>
+        <v>-149.45599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>50985.546253</v>
@@ -783,13 +1199,13 @@
         <v>14.162652</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.590000</v>
+        <v>1203.5899999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.738000</v>
+        <v>-127.738</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>50995.782691</v>
@@ -798,103 +1214,103 @@
         <v>14.165495</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.650000</v>
+        <v>1210.6500000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.054000</v>
+        <v>-107.054</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>51005.593522</v>
+        <v>51005.593522000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>14.168220</v>
+        <v>14.16822</v>
       </c>
       <c r="AB3" s="1">
-        <v>1218.080000</v>
+        <v>1218.08</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.198300</v>
+        <v>-90.198300000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>51015.835413</v>
+        <v>51015.835413000001</v>
       </c>
       <c r="AF3" s="1">
         <v>14.171065</v>
       </c>
       <c r="AG3" s="1">
-        <v>1222.710000</v>
+        <v>1222.71</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.926900</v>
+        <v>-85.926900000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>51025.992486</v>
+        <v>51025.992486000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.173887</v>
+        <v>14.173887000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.618200</v>
+        <v>-89.618200000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>51036.575130</v>
+        <v>51036.575129999997</v>
       </c>
       <c r="AP3" s="1">
         <v>14.176826</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.904000</v>
+        <v>-101.904</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>51047.527786</v>
+        <v>51047.527785999999</v>
       </c>
       <c r="AU3" s="1">
         <v>14.179869</v>
       </c>
       <c r="AV3" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.628000</v>
+        <v>-121.628</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>51058.652060</v>
+        <v>51058.65206</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.182959</v>
       </c>
       <c r="BA3" s="1">
-        <v>1256.150000</v>
+        <v>1256.1500000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.388000</v>
+        <v>-139.38800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>51069.555149</v>
@@ -903,437 +1319,437 @@
         <v>14.185988</v>
       </c>
       <c r="BF3" s="1">
-        <v>1296.700000</v>
+        <v>1296.7</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.339000</v>
+        <v>-222.339</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>51080.991871</v>
+        <v>51080.991870999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.189164</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.234000</v>
+        <v>-360.23399999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>51092.081423</v>
+        <v>51092.081423000003</v>
       </c>
       <c r="BO3" s="1">
         <v>14.192245</v>
       </c>
       <c r="BP3" s="1">
-        <v>1482.600000</v>
+        <v>1482.6</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-584.626000</v>
+        <v>-584.62599999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>51102.720113</v>
+        <v>51102.720113000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>14.195200</v>
+        <v>14.1952</v>
       </c>
       <c r="BU3" s="1">
-        <v>1616.400000</v>
+        <v>1616.4</v>
       </c>
       <c r="BV3" s="1">
-        <v>-837.393000</v>
+        <v>-837.39300000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>51113.485320</v>
+        <v>51113.48532</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.198190</v>
+        <v>14.19819</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.920000</v>
+        <v>1769.92</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1112.960000</v>
+        <v>-1112.96</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>51124.802004</v>
+        <v>51124.802003999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.201334</v>
+        <v>14.201333999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2191.530000</v>
+        <v>2191.5300000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1779.390000</v>
+        <v>-1779.39</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>50955.115211</v>
+        <v>50955.115210999997</v>
       </c>
       <c r="B4" s="1">
         <v>14.154199</v>
       </c>
       <c r="C4" s="1">
-        <v>1146.780000</v>
+        <v>1146.78</v>
       </c>
       <c r="D4" s="1">
-        <v>-256.313000</v>
+        <v>-256.31299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>50965.516279</v>
+        <v>50965.516279000003</v>
       </c>
       <c r="G4" s="1">
         <v>14.157088</v>
       </c>
       <c r="H4" s="1">
-        <v>1168.110000</v>
+        <v>1168.1099999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.182000</v>
+        <v>-215.18199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>50975.678349</v>
+        <v>50975.678349000002</v>
       </c>
       <c r="L4" s="1">
-        <v>14.159911</v>
+        <v>14.159910999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1196.000000</v>
+        <v>1196</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.826000</v>
+        <v>-149.82599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>50985.894449</v>
+        <v>50985.894448999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.162748</v>
+        <v>14.162748000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.680000</v>
+        <v>1203.68</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.670000</v>
+        <v>-127.67</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>50996.205743</v>
+        <v>50996.205742999999</v>
       </c>
       <c r="V4" s="1">
         <v>14.165613</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.750000</v>
+        <v>1210.75</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.951000</v>
+        <v>-106.95099999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>51005.913441</v>
+        <v>51005.913440999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.168309</v>
+        <v>14.168309000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.270700</v>
+        <v>-90.270700000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>51016.179636</v>
+        <v>51016.179636000001</v>
       </c>
       <c r="AF4" s="1">
         <v>14.171161</v>
       </c>
       <c r="AG4" s="1">
-        <v>1222.630000</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.012100</v>
+        <v>-86.012100000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>51026.333270</v>
+        <v>51026.333270000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>14.173981</v>
+        <v>14.173980999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1229.680000</v>
+        <v>1229.68</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.617600</v>
+        <v>-89.617599999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>51036.931257</v>
+        <v>51036.931256999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.176925</v>
+        <v>14.176925000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.891000</v>
+        <v>-101.89100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>51047.890858</v>
+        <v>51047.890857999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.179970</v>
+        <v>14.179970000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.629000</v>
+        <v>-121.629</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>51059.368780</v>
+        <v>51059.368779999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>14.183158</v>
+        <v>14.183158000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1256.140000</v>
+        <v>1256.1400000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.364000</v>
+        <v>-139.364</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>51070.283740</v>
+        <v>51070.283739999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.186190</v>
+        <v>14.18619</v>
       </c>
       <c r="BF4" s="1">
-        <v>1296.680000</v>
+        <v>1296.68</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.310000</v>
+        <v>-222.31</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>51081.399086</v>
+        <v>51081.399085999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.189278</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.050000</v>
+        <v>1367.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.184000</v>
+        <v>-360.18400000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>51092.488638</v>
+        <v>51092.488638000003</v>
       </c>
       <c r="BO4" s="1">
         <v>14.192358</v>
       </c>
       <c r="BP4" s="1">
-        <v>1482.620000</v>
+        <v>1482.62</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-584.656000</v>
+        <v>-584.65599999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>51103.136256</v>
+        <v>51103.136255999998</v>
       </c>
       <c r="BT4" s="1">
         <v>14.195316</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.240000</v>
+        <v>1616.24</v>
       </c>
       <c r="BV4" s="1">
-        <v>-837.436000</v>
+        <v>-837.43600000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>51114.248626</v>
+        <v>51114.248626000001</v>
       </c>
       <c r="BY4" s="1">
         <v>14.198402</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.060000</v>
+        <v>1770.06</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1112.930000</v>
+        <v>-1112.93</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>51125.049507</v>
+        <v>51125.049507000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.201403</v>
+        <v>14.201403000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2192.600000</v>
+        <v>2192.6</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1780.830000</v>
+        <v>-1780.83</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>50955.456420</v>
+        <v>50955.456420000002</v>
       </c>
       <c r="B5" s="1">
-        <v>14.154293</v>
+        <v>14.154292999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1146.720000</v>
+        <v>1146.72</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.463000</v>
+        <v>-256.46300000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>50965.862486</v>
+        <v>50965.862485999998</v>
       </c>
       <c r="G5" s="1">
-        <v>14.157184</v>
+        <v>14.157184000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1168.390000</v>
+        <v>1168.3900000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.972000</v>
+        <v>-214.97200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>50976.097929</v>
+        <v>50976.097929000003</v>
       </c>
       <c r="L5" s="1">
-        <v>14.160027</v>
+        <v>14.160026999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.840000</v>
+        <v>1195.8399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.802000</v>
+        <v>-149.80199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>50986.346267</v>
+        <v>50986.346267000001</v>
       </c>
       <c r="Q5" s="1">
         <v>14.162874</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.710000</v>
+        <v>1203.71</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.694000</v>
+        <v>-127.694</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>50996.471599</v>
+        <v>50996.471598999997</v>
       </c>
       <c r="V5" s="1">
         <v>14.165687</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.710000</v>
+        <v>1210.71</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.007000</v>
+        <v>-107.00700000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>51006.263121</v>
+        <v>51006.263121000004</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.168406</v>
+        <v>14.168405999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1218.170000</v>
+        <v>1218.17</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.264900</v>
+        <v>-90.264899999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>51016.522869</v>
@@ -1342,195 +1758,195 @@
         <v>14.171256</v>
       </c>
       <c r="AG5" s="1">
-        <v>1222.640000</v>
+        <v>1222.6400000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.882700</v>
+        <v>-85.8827</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>51026.679942</v>
+        <v>51026.679942000002</v>
       </c>
       <c r="AK5" s="1">
         <v>14.174078</v>
       </c>
       <c r="AL5" s="1">
-        <v>1229.680000</v>
+        <v>1229.68</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.621400</v>
+        <v>-89.621399999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>51037.641537</v>
+        <v>51037.641537000003</v>
       </c>
       <c r="AP5" s="1">
         <v>14.177123</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.880000</v>
+        <v>-101.88</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>51048.622010</v>
+        <v>51048.622009999999</v>
       </c>
       <c r="AU5" s="1">
         <v>14.180173</v>
       </c>
       <c r="AV5" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.624000</v>
+        <v>-121.624</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>51059.726890</v>
+        <v>51059.726889999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.183257</v>
+        <v>14.183256999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1256.150000</v>
+        <v>1256.1500000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.386000</v>
+        <v>-139.386</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>51070.664668</v>
+        <v>51070.664667999998</v>
       </c>
       <c r="BE5" s="1">
         <v>14.186296</v>
       </c>
       <c r="BF5" s="1">
-        <v>1296.680000</v>
+        <v>1296.68</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.314000</v>
+        <v>-222.31399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>51081.773564</v>
+        <v>51081.773564000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>14.189382</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.050000</v>
+        <v>1367.05</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.236000</v>
+        <v>-360.23599999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>51093.192493</v>
+        <v>51093.192493000002</v>
       </c>
       <c r="BO5" s="1">
         <v>14.192553</v>
       </c>
       <c r="BP5" s="1">
-        <v>1482.530000</v>
+        <v>1482.53</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-584.592000</v>
+        <v>-584.59199999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>51103.856944</v>
+        <v>51103.856943999999</v>
       </c>
       <c r="BT5" s="1">
         <v>14.195516</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.140000</v>
+        <v>1616.14</v>
       </c>
       <c r="BV5" s="1">
-        <v>-837.363000</v>
+        <v>-837.36300000000006</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>51114.382546</v>
+        <v>51114.382546000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.198440</v>
+        <v>14.19844</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1769.970000</v>
+        <v>1769.97</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1112.970000</v>
+        <v>-1112.97</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>51125.582211</v>
+        <v>51125.582211000001</v>
       </c>
       <c r="CD5" s="1">
         <v>14.201551</v>
       </c>
       <c r="CE5" s="1">
-        <v>2193.710000</v>
+        <v>2193.71</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1778.740000</v>
+        <v>-1778.74</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>50955.881491</v>
       </c>
       <c r="B6" s="1">
-        <v>14.154412</v>
+        <v>14.154412000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1146.710000</v>
+        <v>1146.71</v>
       </c>
       <c r="D6" s="1">
-        <v>-256.440000</v>
+        <v>-256.44</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>50966.295036</v>
+        <v>50966.295036000003</v>
       </c>
       <c r="G6" s="1">
         <v>14.157304</v>
       </c>
       <c r="H6" s="1">
-        <v>1168.020000</v>
+        <v>1168.02</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.846000</v>
+        <v>-214.846</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>50976.375194</v>
@@ -1539,208 +1955,208 @@
         <v>14.160104</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.860000</v>
+        <v>1195.8599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.840000</v>
+        <v>-149.84</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>50986.606703</v>
+        <v>50986.606702999998</v>
       </c>
       <c r="Q6" s="1">
         <v>14.162946</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.690000</v>
+        <v>1203.69</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.655000</v>
+        <v>-127.655</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>50996.812350</v>
+        <v>50996.81235</v>
       </c>
       <c r="V6" s="1">
-        <v>14.165781</v>
+        <v>14.165781000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.017000</v>
+        <v>-107.017</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>51006.612839</v>
+        <v>51006.612839000001</v>
       </c>
       <c r="AA6" s="1">
         <v>14.168504</v>
       </c>
       <c r="AB6" s="1">
-        <v>1218.090000</v>
+        <v>1218.0899999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.187100</v>
+        <v>-90.187100000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>51016.866596</v>
       </c>
       <c r="AF6" s="1">
-        <v>14.171352</v>
+        <v>14.171352000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1222.550000</v>
+        <v>1222.55</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.946500</v>
+        <v>-85.9465</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>51027.380312</v>
+        <v>51027.380312000001</v>
       </c>
       <c r="AK6" s="1">
         <v>14.174272</v>
       </c>
       <c r="AL6" s="1">
-        <v>1229.700000</v>
+        <v>1229.7</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.619100</v>
+        <v>-89.619100000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>51038.032423</v>
+        <v>51038.032422999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.177231</v>
+        <v>14.177231000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.898000</v>
+        <v>-101.898</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>51049.013834</v>
+        <v>51049.013833999998</v>
       </c>
       <c r="AU6" s="1">
         <v>14.180282</v>
       </c>
       <c r="AV6" s="1">
-        <v>1247.650000</v>
+        <v>1247.6500000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.605000</v>
+        <v>-121.605</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>51060.086987</v>
+        <v>51060.086987000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.183357</v>
+        <v>14.183357000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.140000</v>
+        <v>1256.1400000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.370000</v>
+        <v>-139.37</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>51071.021787</v>
+        <v>51071.021786999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.186395</v>
+        <v>14.186394999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1296.680000</v>
+        <v>1296.68</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.319000</v>
+        <v>-222.31899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>51082.452092</v>
       </c>
       <c r="BJ6" s="1">
-        <v>14.189570</v>
+        <v>14.18957</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.050000</v>
+        <v>1367.05</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.242000</v>
+        <v>-360.24200000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>51093.324893</v>
+        <v>51093.324892999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>14.192590</v>
+        <v>14.192589999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1482.590000</v>
+        <v>1482.59</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-584.607000</v>
+        <v>-584.60699999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>51103.989905</v>
+        <v>51103.989905000002</v>
       </c>
       <c r="BT6" s="1">
         <v>14.195553</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.110000</v>
+        <v>1616.11</v>
       </c>
       <c r="BV6" s="1">
-        <v>-837.319000</v>
+        <v>-837.31899999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>51114.803651</v>
+        <v>51114.803651000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.198557</v>
+        <v>14.198556999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.990000</v>
+        <v>1769.99</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1112.960000</v>
+        <v>-1112.96</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>51126.123346</v>
@@ -1749,30 +2165,30 @@
         <v>14.201701</v>
       </c>
       <c r="CE6" s="1">
-        <v>2191.220000</v>
+        <v>2191.2199999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1779.590000</v>
+        <v>-1779.59</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>50956.152307</v>
+        <v>50956.152306999997</v>
       </c>
       <c r="B7" s="1">
         <v>14.154487</v>
       </c>
       <c r="C7" s="1">
-        <v>1146.850000</v>
+        <v>1146.8499999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-256.585000</v>
+        <v>-256.58499999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>50966.558374</v>
@@ -1781,28 +2197,28 @@
         <v>14.157377</v>
       </c>
       <c r="H7" s="1">
-        <v>1168.010000</v>
+        <v>1168.01</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.833000</v>
+        <v>-214.833</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>50976.721400</v>
+        <v>50976.721400000002</v>
       </c>
       <c r="L7" s="1">
-        <v>14.160200</v>
+        <v>14.1602</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.920000</v>
+        <v>1195.92</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.391000</v>
+        <v>-149.39099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>50986.953898</v>
@@ -1811,103 +2227,103 @@
         <v>14.163043</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.680000</v>
+        <v>1203.68</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.709000</v>
+        <v>-127.709</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>50997.156609</v>
+        <v>50997.156608999998</v>
       </c>
       <c r="V7" s="1">
         <v>14.165877</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.059000</v>
+        <v>-107.059</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>51007.309220</v>
+        <v>51007.309220000003</v>
       </c>
       <c r="AA7" s="1">
         <v>14.168697</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.120000</v>
+        <v>1218.1199999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.208900</v>
+        <v>-90.2089</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>51017.555075</v>
+        <v>51017.555074999997</v>
       </c>
       <c r="AF7" s="1">
         <v>14.171543</v>
       </c>
       <c r="AG7" s="1">
-        <v>1222.820000</v>
+        <v>1222.82</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.933300</v>
+        <v>-85.933300000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>51027.730501</v>
+        <v>51027.730500999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.174370</v>
+        <v>14.17437</v>
       </c>
       <c r="AL7" s="1">
-        <v>1229.690000</v>
+        <v>1229.69</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.638500</v>
+        <v>-89.638499999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>51038.374616</v>
+        <v>51038.374616000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.177326</v>
+        <v>14.177326000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.896000</v>
+        <v>-101.896</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>51049.377864</v>
+        <v>51049.377864000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.180383</v>
+        <v>14.180383000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1247.660000</v>
+        <v>1247.6600000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.645000</v>
+        <v>-121.645</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>51060.754105</v>
@@ -1916,13 +2332,13 @@
         <v>14.183543</v>
       </c>
       <c r="BA7" s="1">
-        <v>1256.180000</v>
+        <v>1256.18</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.378000</v>
+        <v>-139.37799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>51071.763928</v>
@@ -1931,58 +2347,58 @@
         <v>14.186601</v>
       </c>
       <c r="BF7" s="1">
-        <v>1296.680000</v>
+        <v>1296.68</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.308000</v>
+        <v>-222.30799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>51082.559724</v>
+        <v>51082.559723999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.189600</v>
+        <v>14.1896</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.185000</v>
+        <v>-360.185</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>51093.733597</v>
+        <v>51093.733596999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>14.192704</v>
+        <v>14.192704000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-584.624000</v>
+        <v>-584.62400000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>51104.428833</v>
+        <v>51104.428832999998</v>
       </c>
       <c r="BT7" s="1">
         <v>14.195675</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.060000</v>
+        <v>1616.06</v>
       </c>
       <c r="BV7" s="1">
-        <v>-837.375000</v>
+        <v>-837.375</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>51115.229218</v>
@@ -1991,392 +2407,392 @@
         <v>14.198675</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.130000</v>
+        <v>1770.13</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1112.800000</v>
+        <v>-1112.8</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>51126.661009</v>
+        <v>51126.661009000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>14.201850</v>
+        <v>14.20185</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.130000</v>
+        <v>2194.13</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1780.530000</v>
+        <v>-1780.53</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>50956.492106</v>
+        <v>50956.492105999998</v>
       </c>
       <c r="B8" s="1">
         <v>14.154581</v>
       </c>
       <c r="C8" s="1">
-        <v>1146.910000</v>
+        <v>1146.9100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-256.497000</v>
+        <v>-256.49700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>50966.902133</v>
+        <v>50966.902133000003</v>
       </c>
       <c r="G8" s="1">
         <v>14.157473</v>
       </c>
       <c r="H8" s="1">
-        <v>1168.610000</v>
+        <v>1168.6099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.099000</v>
+        <v>-215.09899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>50977.064665</v>
+        <v>50977.064664999998</v>
       </c>
       <c r="L8" s="1">
-        <v>14.160296</v>
+        <v>14.160296000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.670000</v>
+        <v>-149.66999999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>50987.655210</v>
+        <v>50987.655209999997</v>
       </c>
       <c r="Q8" s="1">
         <v>14.163238</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.650000</v>
+        <v>1203.6500000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.735000</v>
+        <v>-127.735</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>50997.845021</v>
+        <v>50997.845021000001</v>
       </c>
       <c r="V8" s="1">
-        <v>14.166068</v>
+        <v>14.166067999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.860000</v>
+        <v>1210.8599999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.024000</v>
+        <v>-107.024</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>51007.656424</v>
+        <v>51007.656424000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.168793</v>
+        <v>14.168793000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1218.160000</v>
+        <v>1218.1600000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.281300</v>
+        <v>-90.281300000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>51017.898769</v>
+        <v>51017.898768999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.171639</v>
+        <v>14.171639000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1222.710000</v>
+        <v>1222.71</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.863700</v>
+        <v>-85.863699999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>51028.075686</v>
+        <v>51028.075685999996</v>
       </c>
       <c r="AK8" s="1">
         <v>14.174465</v>
       </c>
       <c r="AL8" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.626800</v>
+        <v>-89.626800000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>51039.038293</v>
+        <v>51039.038292999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.177511</v>
+        <v>14.177511000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.898000</v>
+        <v>-101.898</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>51050.054407</v>
+        <v>51050.054407000003</v>
       </c>
       <c r="AU8" s="1">
         <v>14.180571</v>
       </c>
       <c r="AV8" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.626000</v>
+        <v>-121.626</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>51061.195080</v>
+        <v>51061.195079999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.183665</v>
       </c>
       <c r="BA8" s="1">
-        <v>1256.170000</v>
+        <v>1256.17</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.374000</v>
+        <v>-139.374</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>51072.132331</v>
+        <v>51072.132331000001</v>
       </c>
       <c r="BE8" s="1">
         <v>14.186703</v>
       </c>
       <c r="BF8" s="1">
-        <v>1296.670000</v>
+        <v>1296.67</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.315000</v>
+        <v>-222.315</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>51082.923291</v>
+        <v>51082.923290999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>14.189701</v>
+        <v>14.189700999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.241000</v>
+        <v>-360.24099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>51094.129437</v>
+        <v>51094.129437000003</v>
       </c>
       <c r="BO8" s="1">
         <v>14.192814</v>
       </c>
       <c r="BP8" s="1">
-        <v>1482.590000</v>
+        <v>1482.59</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-584.622000</v>
+        <v>-584.62199999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>51104.851920</v>
+        <v>51104.851920000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.195792</v>
+        <v>14.195792000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.050000</v>
+        <v>1616.05</v>
       </c>
       <c r="BV8" s="1">
-        <v>-837.305000</v>
+        <v>-837.30499999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>51115.676114</v>
+        <v>51115.676114000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>14.198799</v>
+        <v>14.198798999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.040000</v>
+        <v>1770.04</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1113.010000</v>
+        <v>-1113.01</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>51127.201185</v>
+        <v>51127.201184999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.202000</v>
+        <v>14.202</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.990000</v>
+        <v>2191.9899999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1778.270000</v>
+        <v>-1778.27</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>50956.838772</v>
+        <v>50956.838772000003</v>
       </c>
       <c r="B9" s="1">
         <v>14.154677</v>
       </c>
       <c r="C9" s="1">
-        <v>1146.470000</v>
+        <v>1146.47</v>
       </c>
       <c r="D9" s="1">
-        <v>-256.730000</v>
+        <v>-256.73</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>50967.247812</v>
+        <v>50967.247812000001</v>
       </c>
       <c r="G9" s="1">
-        <v>14.157569</v>
+        <v>14.157569000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1168.210000</v>
+        <v>1168.21</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.628000</v>
+        <v>-215.62799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>50977.757578</v>
+        <v>50977.757577999997</v>
       </c>
       <c r="L9" s="1">
-        <v>14.160488</v>
+        <v>14.160488000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.592000</v>
+        <v>-149.59200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>50988.002441</v>
+        <v>50988.002440999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>14.163334</v>
+        <v>14.163334000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.610000</v>
+        <v>1203.6099999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.697000</v>
+        <v>-127.697</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>50998.187759</v>
       </c>
       <c r="V9" s="1">
-        <v>14.166163</v>
+        <v>14.166162999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.810000</v>
+        <v>1210.81</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.982000</v>
+        <v>-106.982</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>51008.005070</v>
+        <v>51008.005069999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.168890</v>
+        <v>14.168889999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.160000</v>
+        <v>1218.1600000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.205300</v>
+        <v>-90.205299999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>51018.242498</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.171734</v>
+        <v>14.171734000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1222.700000</v>
+        <v>1222.7</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.990900</v>
+        <v>-85.990899999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>51028.735364</v>
@@ -2385,88 +2801,88 @@
         <v>14.174649</v>
       </c>
       <c r="AL9" s="1">
-        <v>1229.690000</v>
+        <v>1229.69</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.607600</v>
+        <v>-89.607600000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>51039.488134</v>
+        <v>51039.488133999999</v>
       </c>
       <c r="AP9" s="1">
         <v>14.177636</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.889000</v>
+        <v>-101.889</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>51050.471543</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.180687</v>
+        <v>14.180687000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.607000</v>
+        <v>-121.607</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>51061.552663</v>
+        <v>51061.552663000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.183765</v>
+        <v>14.183764999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1256.180000</v>
+        <v>1256.18</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.372000</v>
+        <v>-139.37200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>51072.514043</v>
+        <v>51072.514043000003</v>
       </c>
       <c r="BE9" s="1">
         <v>14.186809</v>
       </c>
       <c r="BF9" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.329000</v>
+        <v>-222.32900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>51083.302271</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.189806</v>
+        <v>14.189806000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.224000</v>
+        <v>-360.22399999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>51094.550508</v>
@@ -2475,90 +2891,90 @@
         <v>14.192931</v>
       </c>
       <c r="BP9" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-584.595000</v>
+        <v>-584.59500000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>51105.268062</v>
+        <v>51105.268062000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.195908</v>
+        <v>14.195907999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1615.980000</v>
+        <v>1615.98</v>
       </c>
       <c r="BV9" s="1">
-        <v>-837.320000</v>
+        <v>-837.32</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>51116.108658</v>
+        <v>51116.108657999997</v>
       </c>
       <c r="BY9" s="1">
         <v>14.198919</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.840000</v>
+        <v>1769.84</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1113.080000</v>
+        <v>-1113.08</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>51127.740838</v>
+        <v>51127.740837999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.202150</v>
+        <v>14.20215</v>
       </c>
       <c r="CE9" s="1">
-        <v>2192.560000</v>
+        <v>2192.56</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1780.560000</v>
+        <v>-1780.56</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>50957.517331</v>
+        <v>50957.517331000003</v>
       </c>
       <c r="B10" s="1">
         <v>14.154866</v>
       </c>
       <c r="C10" s="1">
-        <v>1146.840000</v>
+        <v>1146.8399999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-256.533000</v>
+        <v>-256.53300000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>50967.935269</v>
+        <v>50967.935269000001</v>
       </c>
       <c r="G10" s="1">
-        <v>14.157760</v>
+        <v>14.15776</v>
       </c>
       <c r="H10" s="1">
-        <v>1168.420000</v>
+        <v>1168.42</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.630000</v>
+        <v>-214.63</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>50978.101768</v>
@@ -2567,28 +2983,28 @@
         <v>14.160584</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.652000</v>
+        <v>-149.65199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>50988.352089</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.163431</v>
+        <v>14.163430999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.610000</v>
+        <v>1203.6099999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.657000</v>
+        <v>-127.657</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>50998.538924</v>
@@ -2597,178 +3013,178 @@
         <v>14.166261</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.810000</v>
+        <v>1210.81</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.034000</v>
+        <v>-107.03400000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>51008.658830</v>
+        <v>51008.65883</v>
       </c>
       <c r="AA10" s="1">
         <v>14.169072</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.080000</v>
+        <v>1218.08</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.172200</v>
+        <v>-90.172200000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>51018.904656</v>
+        <v>51018.904655999999</v>
       </c>
       <c r="AF10" s="1">
         <v>14.171918</v>
       </c>
       <c r="AG10" s="1">
-        <v>1222.760000</v>
+        <v>1222.76</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.106400</v>
+        <v>-86.106399999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>51029.117780</v>
+        <v>51029.11778</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.174755</v>
+        <v>14.174754999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.629600</v>
+        <v>-89.629599999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>51039.848229</v>
+        <v>51039.848229000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.177736</v>
+        <v>14.177735999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.896000</v>
+        <v>-101.896</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>51050.866855</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.180796</v>
+        <v>14.180796000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1247.630000</v>
+        <v>1247.6300000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.624000</v>
+        <v>-121.624</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>51061.911767</v>
+        <v>51061.911766999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.183864</v>
       </c>
       <c r="BA10" s="1">
-        <v>1256.170000</v>
+        <v>1256.17</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.395000</v>
+        <v>-139.39500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>51072.936345</v>
+        <v>51072.936345000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.186927</v>
+        <v>14.186927000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1296.650000</v>
+        <v>1296.6500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.333000</v>
+        <v>-222.333</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>51083.721850</v>
+        <v>51083.721850000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>14.189923</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.182000</v>
+        <v>-360.18200000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>51094.950318</v>
+        <v>51094.950318000003</v>
       </c>
       <c r="BO10" s="1">
         <v>14.193042</v>
       </c>
       <c r="BP10" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-584.664000</v>
+        <v>-584.66399999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>51105.696110</v>
+        <v>51105.696109999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.196027</v>
+        <v>14.196027000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.740000</v>
+        <v>1615.74</v>
       </c>
       <c r="BV10" s="1">
-        <v>-837.285000</v>
+        <v>-837.28499999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>51116.529728</v>
+        <v>51116.529728000001</v>
       </c>
       <c r="BY10" s="1">
         <v>14.199036</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1769.940000</v>
+        <v>1769.94</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1113.100000</v>
+        <v>-1113.0999999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>51128.282432</v>
@@ -2777,90 +3193,90 @@
         <v>14.202301</v>
       </c>
       <c r="CE10" s="1">
-        <v>2193.900000</v>
+        <v>2193.9</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1778.970000</v>
+        <v>-1778.97</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>50957.863010</v>
+        <v>50957.863010000001</v>
       </c>
       <c r="B11" s="1">
-        <v>14.154962</v>
+        <v>14.154961999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1146.650000</v>
+        <v>1146.6500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-256.503000</v>
+        <v>-256.50299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>50968.281971</v>
+        <v>50968.281970999997</v>
       </c>
       <c r="G11" s="1">
-        <v>14.157856</v>
+        <v>14.157856000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1168.050000</v>
+        <v>1168.05</v>
       </c>
       <c r="I11" s="1">
-        <v>-214.900000</v>
+        <v>-214.9</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>50978.448998</v>
       </c>
       <c r="L11" s="1">
-        <v>14.160680</v>
+        <v>14.160679999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1196.080000</v>
+        <v>1196.08</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.584000</v>
+        <v>-149.584</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>50989.006360</v>
+        <v>50989.006359999999</v>
       </c>
       <c r="Q11" s="1">
         <v>14.163613</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.690000</v>
+        <v>1203.69</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.622000</v>
+        <v>-127.622</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>50999.187690</v>
+        <v>50999.187689999999</v>
       </c>
       <c r="V11" s="1">
-        <v>14.166441</v>
+        <v>14.166441000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.850000</v>
+        <v>1210.8499999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.017000</v>
+        <v>-107.017</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>51009.050637</v>
@@ -2869,330 +3285,330 @@
         <v>14.169181</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.090000</v>
+        <v>1218.0899999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.221200</v>
+        <v>-90.221199999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>51019.271201</v>
+        <v>51019.271201000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.172020</v>
+        <v>14.17202</v>
       </c>
       <c r="AG11" s="1">
-        <v>1222.640000</v>
+        <v>1222.6400000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.912500</v>
+        <v>-85.912499999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>51029.472915</v>
+        <v>51029.472914999998</v>
       </c>
       <c r="AK11" s="1">
         <v>14.174854</v>
       </c>
       <c r="AL11" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.621300</v>
+        <v>-89.621300000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>51040.206341</v>
+        <v>51040.206340999997</v>
       </c>
       <c r="AP11" s="1">
         <v>14.177835</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.898000</v>
+        <v>-101.898</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>51051.230422</v>
+        <v>51051.230422000001</v>
       </c>
       <c r="AU11" s="1">
         <v>14.180897</v>
       </c>
       <c r="AV11" s="1">
-        <v>1247.610000</v>
+        <v>1247.6099999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.599000</v>
+        <v>-121.599</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>51062.328903</v>
+        <v>51062.328903000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.183980</v>
+        <v>14.18398</v>
       </c>
       <c r="BA11" s="1">
-        <v>1256.140000</v>
+        <v>1256.1400000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.354000</v>
+        <v>-139.35400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>51073.234969</v>
+        <v>51073.234968999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>14.187010</v>
+        <v>14.187010000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1296.670000</v>
+        <v>1296.67</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.310000</v>
+        <v>-222.31</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>51084.048714</v>
+        <v>51084.048713999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>14.190014</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.050000</v>
+        <v>1367.05</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.185000</v>
+        <v>-360.185</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>51095.367420</v>
+        <v>51095.367420000002</v>
       </c>
       <c r="BO11" s="1">
         <v>14.193158</v>
       </c>
       <c r="BP11" s="1">
-        <v>1482.610000</v>
+        <v>1482.61</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-584.591000</v>
+        <v>-584.59100000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>51106.126695</v>
+        <v>51106.126694999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.196146</v>
+        <v>14.196146000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.850000</v>
+        <v>1615.85</v>
       </c>
       <c r="BV11" s="1">
-        <v>-837.383000</v>
+        <v>-837.38300000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>51116.951822</v>
+        <v>51116.951822000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.199153</v>
+        <v>14.199153000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.950000</v>
+        <v>1769.95</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1112.990000</v>
+        <v>-1112.99</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>51128.819134</v>
+        <v>51128.819133999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.202450</v>
+        <v>14.202450000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2191.400000</v>
+        <v>2191.4</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1779.450000</v>
+        <v>-1779.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>50958.206241</v>
       </c>
       <c r="B12" s="1">
-        <v>14.155057</v>
+        <v>14.155056999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1146.550000</v>
+        <v>1146.55</v>
       </c>
       <c r="D12" s="1">
-        <v>-256.549000</v>
+        <v>-256.54899999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>50968.624708</v>
+        <v>50968.624708000003</v>
       </c>
       <c r="G12" s="1">
-        <v>14.157951</v>
+        <v>14.157951000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1168.250000</v>
+        <v>1168.25</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.529000</v>
+        <v>-215.529</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>50979.098724</v>
+        <v>50979.098724000003</v>
       </c>
       <c r="L12" s="1">
-        <v>14.160861</v>
+        <v>14.160861000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.780000</v>
+        <v>-149.78</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>50989.387239</v>
+        <v>50989.387239000003</v>
       </c>
       <c r="Q12" s="1">
         <v>14.163719</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.690000</v>
+        <v>1203.69</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.771000</v>
+        <v>-127.771</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>50999.569610</v>
+        <v>50999.569609999999</v>
       </c>
       <c r="V12" s="1">
         <v>14.166547</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.760000</v>
+        <v>1210.76</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.920000</v>
+        <v>-106.92</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>51009.397340</v>
+        <v>51009.397340000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.169277</v>
+        <v>14.169276999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.140000</v>
+        <v>1218.1400000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.241300</v>
+        <v>-90.241299999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>51019.613469</v>
+        <v>51019.613469000004</v>
       </c>
       <c r="AF12" s="1">
         <v>14.172115</v>
       </c>
       <c r="AG12" s="1">
-        <v>1222.680000</v>
+        <v>1222.68</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.952700</v>
+        <v>-85.952699999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>51029.821142</v>
+        <v>51029.821142000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>14.174950</v>
+        <v>14.174950000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.630600</v>
+        <v>-89.630600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>51040.625956</v>
+        <v>51040.625956000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>14.177952</v>
+        <v>14.177951999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.892000</v>
+        <v>-101.892</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>51051.648054</v>
+        <v>51051.648053999998</v>
       </c>
       <c r="AU12" s="1">
         <v>14.181013</v>
       </c>
       <c r="AV12" s="1">
-        <v>1247.610000</v>
+        <v>1247.6099999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.613000</v>
+        <v>-121.613</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>51062.632951</v>
@@ -3201,497 +3617,497 @@
         <v>14.184065</v>
       </c>
       <c r="BA12" s="1">
-        <v>1256.180000</v>
+        <v>1256.18</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.401000</v>
+        <v>-139.40100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>51073.598043</v>
+        <v>51073.598042999998</v>
       </c>
       <c r="BE12" s="1">
         <v>14.187111</v>
       </c>
       <c r="BF12" s="1">
-        <v>1296.670000</v>
+        <v>1296.67</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.319000</v>
+        <v>-222.31899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>51084.446120</v>
+        <v>51084.446120000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.190124</v>
+        <v>14.190124000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.196000</v>
+        <v>-360.19600000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>51095.765743</v>
+        <v>51095.765743000004</v>
       </c>
       <c r="BO12" s="1">
         <v>14.193268</v>
       </c>
       <c r="BP12" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-584.575000</v>
+        <v>-584.57500000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>51106.547740</v>
+        <v>51106.547740000002</v>
       </c>
       <c r="BT12" s="1">
         <v>14.196263</v>
       </c>
       <c r="BU12" s="1">
-        <v>1615.740000</v>
+        <v>1615.74</v>
       </c>
       <c r="BV12" s="1">
-        <v>-837.306000</v>
+        <v>-837.30600000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>51117.406654</v>
+        <v>51117.406653999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>14.199280</v>
+        <v>14.19928</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.040000</v>
+        <v>1770.04</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1113.290000</v>
+        <v>-1113.29</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>51129.364739</v>
+        <v>51129.364738999997</v>
       </c>
       <c r="CD12" s="1">
         <v>14.202601</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.040000</v>
+        <v>2194.04</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1780.590000</v>
+        <v>-1780.59</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>50958.858977</v>
+        <v>50958.858977000004</v>
       </c>
       <c r="B13" s="1">
         <v>14.155239</v>
       </c>
       <c r="C13" s="1">
-        <v>1146.760000</v>
+        <v>1146.76</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.563000</v>
+        <v>-256.56299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>50969.288850</v>
+        <v>50969.288849999997</v>
       </c>
       <c r="G13" s="1">
-        <v>14.158136</v>
+        <v>14.158136000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1168.180000</v>
+        <v>1168.18</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.845000</v>
+        <v>-215.845</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>50979.485604</v>
+        <v>50979.485604000001</v>
       </c>
       <c r="L13" s="1">
         <v>14.160968</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.800000</v>
+        <v>-149.80000000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>50989.746377</v>
+        <v>50989.746377000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.163818</v>
+        <v>14.163817999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.620000</v>
+        <v>1203.6199999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.777000</v>
+        <v>-127.777</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>50999.911385</v>
+        <v>50999.911384999999</v>
       </c>
       <c r="V13" s="1">
         <v>14.166642</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.730000</v>
+        <v>1210.73</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.937000</v>
+        <v>-106.937</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>51009.748541</v>
+        <v>51009.748541000001</v>
       </c>
       <c r="AA13" s="1">
         <v>14.169375</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.080000</v>
+        <v>1218.08</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.167900</v>
+        <v>-90.167900000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>51019.958160</v>
+        <v>51019.958160000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.172211</v>
+        <v>14.172211000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1222.680000</v>
+        <v>1222.68</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.965400</v>
+        <v>-85.965400000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>51030.250146</v>
+        <v>51030.250145999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.175069</v>
+        <v>14.175069000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.620800</v>
+        <v>-89.620800000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>51040.929012</v>
+        <v>51040.929012000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>14.178036</v>
+        <v>14.178036000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.901000</v>
+        <v>-101.901</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>51051.960036</v>
+        <v>51051.960035999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.181100</v>
+        <v>14.181100000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.577000</v>
+        <v>-121.577</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>51062.990070</v>
+        <v>51062.99007</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.184164</v>
+        <v>14.184164000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1256.170000</v>
+        <v>1256.17</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.387000</v>
+        <v>-139.387</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>51073.961111</v>
+        <v>51073.961110999997</v>
       </c>
       <c r="BE13" s="1">
         <v>14.187211</v>
       </c>
       <c r="BF13" s="1">
-        <v>1296.650000</v>
+        <v>1296.6500000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.311000</v>
+        <v>-222.31100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>51084.822969</v>
+        <v>51084.822969000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.190229</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.194000</v>
+        <v>-360.19400000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>51096.190318</v>
+        <v>51096.190318000001</v>
       </c>
       <c r="BO13" s="1">
         <v>14.193386</v>
       </c>
       <c r="BP13" s="1">
-        <v>1482.620000</v>
+        <v>1482.62</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-584.634000</v>
+        <v>-584.63400000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>51106.968379</v>
+        <v>51106.968378999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.196380</v>
+        <v>14.19638</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.720000</v>
+        <v>1615.72</v>
       </c>
       <c r="BV13" s="1">
-        <v>-837.411000</v>
+        <v>-837.41099999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>51117.824783</v>
+        <v>51117.824782999996</v>
       </c>
       <c r="BY13" s="1">
         <v>14.199396</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.970000</v>
+        <v>1769.97</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1113.070000</v>
+        <v>-1113.07</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>51129.902366</v>
+        <v>51129.902366000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.202751</v>
+        <v>14.202750999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2192.390000</v>
+        <v>2192.39</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1778.290000</v>
+        <v>-1778.29</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>50959.226546</v>
+        <v>50959.226545999998</v>
       </c>
       <c r="B14" s="1">
         <v>14.155341</v>
       </c>
       <c r="C14" s="1">
-        <v>1146.620000</v>
+        <v>1146.6199999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.641000</v>
+        <v>-256.64100000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>50969.659891</v>
+        <v>50969.659891000003</v>
       </c>
       <c r="G14" s="1">
         <v>14.158239</v>
       </c>
       <c r="H14" s="1">
-        <v>1167.990000</v>
+        <v>1167.99</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.029000</v>
+        <v>-216.029</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>50979.829332</v>
+        <v>50979.829332000001</v>
       </c>
       <c r="L14" s="1">
         <v>14.161064</v>
       </c>
       <c r="M14" s="1">
-        <v>1196.000000</v>
+        <v>1196</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.504000</v>
+        <v>-149.50399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>50990.095526</v>
+        <v>50990.095525999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.163915</v>
+        <v>14.163914999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.695000</v>
+        <v>-127.69499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>51000.254584</v>
+        <v>51000.254584000002</v>
       </c>
       <c r="V14" s="1">
-        <v>14.166737</v>
+        <v>14.166736999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.840000</v>
+        <v>1210.8399999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.915000</v>
+        <v>-106.91500000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>51010.165147</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.169490</v>
+        <v>14.16949</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.160000</v>
+        <v>1218.1600000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.158700</v>
+        <v>-90.158699999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>51020.438782</v>
+        <v>51020.438781999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.172344</v>
+        <v>14.172344000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1222.650000</v>
+        <v>1222.6500000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.954600</v>
+        <v>-85.954599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>51030.520497</v>
+        <v>51030.520496999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.175145</v>
+        <v>14.175145000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.618400</v>
+        <v>-89.618399999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>51041.289143</v>
+        <v>51041.289143000002</v>
       </c>
       <c r="AP14" s="1">
         <v>14.178136</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.908000</v>
+        <v>-101.908</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>51052.322644</v>
@@ -3700,225 +4116,225 @@
         <v>14.181201</v>
       </c>
       <c r="AV14" s="1">
-        <v>1247.630000</v>
+        <v>1247.6300000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.637000</v>
+        <v>-121.637</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>51063.347989</v>
+        <v>51063.347989000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>14.184263</v>
       </c>
       <c r="BA14" s="1">
-        <v>1256.180000</v>
+        <v>1256.18</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.381000</v>
+        <v>-139.381</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>51074.690198</v>
+        <v>51074.690197999997</v>
       </c>
       <c r="BE14" s="1">
         <v>14.187414</v>
       </c>
       <c r="BF14" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.286000</v>
+        <v>-222.286</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>51085.570937</v>
+        <v>51085.570936999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>14.190436</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.220000</v>
+        <v>-360.22</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>51096.585595</v>
+        <v>51096.585594999997</v>
       </c>
       <c r="BO14" s="1">
         <v>14.193496</v>
       </c>
       <c r="BP14" s="1">
-        <v>1482.640000</v>
+        <v>1482.64</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-584.639000</v>
+        <v>-584.63900000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>51107.394947</v>
+        <v>51107.394947000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.196499</v>
+        <v>14.196498999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.750000</v>
+        <v>1615.75</v>
       </c>
       <c r="BV14" s="1">
-        <v>-837.531000</v>
+        <v>-837.53099999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>51118.267710</v>
+        <v>51118.26771</v>
       </c>
       <c r="BY14" s="1">
         <v>14.199519</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.880000</v>
+        <v>1769.88</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1113.000000</v>
+        <v>-1113</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>51130.750055</v>
+        <v>51130.750054999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.202986</v>
+        <v>14.202985999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2194.110000</v>
+        <v>2194.11</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1779.590000</v>
+        <v>-1779.59</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>50959.571764</v>
       </c>
       <c r="B15" s="1">
-        <v>14.155437</v>
+        <v>14.155436999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1146.850000</v>
+        <v>1146.8499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.524000</v>
+        <v>-256.524</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>50970.006292</v>
+        <v>50970.006291999998</v>
       </c>
       <c r="G15" s="1">
-        <v>14.158335</v>
+        <v>14.158334999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1168.390000</v>
+        <v>1168.3900000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.554000</v>
+        <v>-215.554</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>50980.175045</v>
+        <v>50980.175045000004</v>
       </c>
       <c r="L15" s="1">
-        <v>14.161160</v>
+        <v>14.161160000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1196.110000</v>
+        <v>1196.1099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.641000</v>
+        <v>-149.64099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>50990.514150</v>
+        <v>50990.514150000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.164032</v>
+        <v>14.164032000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.656000</v>
+        <v>-127.65600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>51000.680189</v>
+        <v>51000.680188999999</v>
       </c>
       <c r="V15" s="1">
-        <v>14.166856</v>
+        <v>14.166855999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.800000</v>
+        <v>1210.8</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.058000</v>
+        <v>-107.05800000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>51010.459305</v>
+        <v>51010.459304999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.169572</v>
+        <v>14.169572000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.259300</v>
+        <v>-90.259299999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>51020.673390</v>
+        <v>51020.673390000004</v>
       </c>
       <c r="AF15" s="1">
         <v>14.172409</v>
       </c>
       <c r="AG15" s="1">
-        <v>1222.640000</v>
+        <v>1222.6400000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.941300</v>
+        <v>-85.941299999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>51030.866703</v>
@@ -3927,165 +4343,165 @@
         <v>14.175241</v>
       </c>
       <c r="AL15" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.624700</v>
+        <v>-89.624700000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>51041.647219</v>
+        <v>51041.647218999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>14.178235</v>
+        <v>14.178235000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.879000</v>
+        <v>-101.879</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>51052.689191</v>
+        <v>51052.689190999998</v>
       </c>
       <c r="AU15" s="1">
         <v>14.181303</v>
       </c>
       <c r="AV15" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.621000</v>
+        <v>-121.621</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>51064.068372</v>
+        <v>51064.068372000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>14.184463</v>
+        <v>14.184462999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1256.150000</v>
+        <v>1256.1500000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.391000</v>
+        <v>-139.39099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>51075.067159</v>
+        <v>51075.067158999998</v>
       </c>
       <c r="BE15" s="1">
         <v>14.187519</v>
       </c>
       <c r="BF15" s="1">
-        <v>1296.700000</v>
+        <v>1296.7</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.302000</v>
+        <v>-222.30199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>51085.948888</v>
+        <v>51085.948887999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.190541</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.218000</v>
+        <v>-360.21800000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>51097.003721</v>
+        <v>51097.003721000001</v>
       </c>
       <c r="BO15" s="1">
         <v>14.193612</v>
       </c>
       <c r="BP15" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-584.612000</v>
+        <v>-584.61199999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>51108.115596</v>
+        <v>51108.115596000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.196699</v>
+        <v>14.196699000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.720000</v>
+        <v>1615.72</v>
       </c>
       <c r="BV15" s="1">
-        <v>-837.494000</v>
+        <v>-837.49400000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>51119.000797</v>
+        <v>51119.000797000001</v>
       </c>
       <c r="BY15" s="1">
         <v>14.199722</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.840000</v>
+        <v>1769.84</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1113.020000</v>
+        <v>-1113.02</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>51130.980205</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.203050</v>
+        <v>14.203049999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2193.850000</v>
+        <v>2193.85</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1779.540000</v>
+        <v>-1779.54</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>50959.913470</v>
+        <v>50959.91347</v>
       </c>
       <c r="B16" s="1">
-        <v>14.155532</v>
+        <v>14.155531999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1146.510000</v>
+        <v>1146.51</v>
       </c>
       <c r="D16" s="1">
-        <v>-256.504000</v>
+        <v>-256.50400000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>50970.431632</v>
@@ -4094,103 +4510,103 @@
         <v>14.158453</v>
       </c>
       <c r="H16" s="1">
-        <v>1168.130000</v>
+        <v>1168.1300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.252000</v>
+        <v>-215.25200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>50980.598130</v>
+        <v>50980.598129999998</v>
       </c>
       <c r="L16" s="1">
         <v>14.161277</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.910000</v>
+        <v>1195.9100000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.639000</v>
+        <v>-149.63900000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>50990.790421</v>
+        <v>50990.790420999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.164108</v>
+        <v>14.164108000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.640000</v>
+        <v>1203.6400000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.655000</v>
+        <v>-127.655</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>51000.953609</v>
+        <v>51000.953608999997</v>
       </c>
       <c r="V16" s="1">
-        <v>14.166932</v>
+        <v>14.166931999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.890000</v>
+        <v>1210.8900000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.093000</v>
+        <v>-107.093</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>51010.808954</v>
       </c>
       <c r="AA16" s="1">
-        <v>14.169669</v>
+        <v>14.169669000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.142000</v>
+        <v>-90.141999999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>51021.014178</v>
+        <v>51021.014177999998</v>
       </c>
       <c r="AF16" s="1">
         <v>14.172504</v>
       </c>
       <c r="AG16" s="1">
-        <v>1222.680000</v>
+        <v>1222.68</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.970700</v>
+        <v>-85.970699999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>51031.217695</v>
+        <v>51031.217694999999</v>
       </c>
       <c r="AK16" s="1">
         <v>14.175338</v>
       </c>
       <c r="AL16" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.609300</v>
+        <v>-89.609300000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>51042.368402</v>
@@ -4199,88 +4615,88 @@
         <v>14.178436</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.893000</v>
+        <v>-101.893</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>51053.421250</v>
+        <v>51053.421249999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>14.181506</v>
+        <v>14.181506000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.652000</v>
+        <v>-121.652</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>51064.424500</v>
+        <v>51064.424500000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>14.184562</v>
       </c>
       <c r="BA16" s="1">
-        <v>1256.160000</v>
+        <v>1256.1600000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.363000</v>
+        <v>-139.363</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>51075.445141</v>
+        <v>51075.445140999997</v>
       </c>
       <c r="BE16" s="1">
         <v>14.187624</v>
       </c>
       <c r="BF16" s="1">
-        <v>1296.700000</v>
+        <v>1296.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.313000</v>
+        <v>-222.31299999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>51086.324855</v>
+        <v>51086.324854999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>14.190646</v>
+        <v>14.190645999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.193000</v>
+        <v>-360.19299999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>51097.704104</v>
+        <v>51097.704103999997</v>
       </c>
       <c r="BO16" s="1">
         <v>14.193807</v>
       </c>
       <c r="BP16" s="1">
-        <v>1482.580000</v>
+        <v>1482.58</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-584.604000</v>
+        <v>-584.60400000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>51108.237642</v>
@@ -4289,1148 +4705,1148 @@
         <v>14.196733</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.590000</v>
+        <v>1615.59</v>
       </c>
       <c r="BV16" s="1">
-        <v>-837.497000</v>
+        <v>-837.49699999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>51119.116396</v>
+        <v>51119.116395999998</v>
       </c>
       <c r="BY16" s="1">
         <v>14.199755</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.070000</v>
+        <v>1770.07</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1113.070000</v>
+        <v>-1113.07</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>51131.498988</v>
+        <v>51131.498987999999</v>
       </c>
       <c r="CD16" s="1">
         <v>14.203194</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.740000</v>
+        <v>2192.7399999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1778.060000</v>
+        <v>-1778.06</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>50960.335566</v>
+        <v>50960.335566000002</v>
       </c>
       <c r="B17" s="1">
         <v>14.155649</v>
       </c>
       <c r="C17" s="1">
-        <v>1146.610000</v>
+        <v>1146.6099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-256.597000</v>
+        <v>-256.59699999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>50970.707904</v>
+        <v>50970.707904000003</v>
       </c>
       <c r="G17" s="1">
-        <v>14.158530</v>
+        <v>14.158530000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1168.710000</v>
+        <v>1168.71</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.180000</v>
+        <v>-215.18</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>50980.890307</v>
+        <v>50980.890307000001</v>
       </c>
       <c r="L17" s="1">
         <v>14.161358</v>
       </c>
       <c r="M17" s="1">
-        <v>1196.050000</v>
+        <v>1196.05</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.657000</v>
+        <v>-149.65700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>50991.140598</v>
+        <v>50991.140597999998</v>
       </c>
       <c r="Q17" s="1">
         <v>14.164206</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.640000</v>
+        <v>1203.6400000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.671000</v>
+        <v>-127.67100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>51001.294696</v>
+        <v>51001.294695999997</v>
       </c>
       <c r="V17" s="1">
         <v>14.167026</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.820000</v>
+        <v>1210.82</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.133000</v>
+        <v>-107.133</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>51011.156157</v>
+        <v>51011.156156999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.169766</v>
+        <v>14.169765999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.239500</v>
+        <v>-90.239500000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>51021.698653</v>
+        <v>51021.698652999999</v>
       </c>
       <c r="AF17" s="1">
         <v>14.172694</v>
       </c>
       <c r="AG17" s="1">
-        <v>1222.600000</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.974900</v>
+        <v>-85.974900000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>51031.913232</v>
+        <v>51031.913231999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.175531</v>
+        <v>14.175530999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.649800</v>
+        <v>-89.649799999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>51042.727037</v>
+        <v>51042.727036999997</v>
       </c>
       <c r="AP17" s="1">
         <v>14.178535</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.878000</v>
+        <v>-101.878</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>51053.814579</v>
+        <v>51053.814578999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>14.181615</v>
+        <v>14.181615000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.616000</v>
+        <v>-121.616</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>51064.783109</v>
+        <v>51064.783109000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.184662</v>
+        <v>14.184661999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.382000</v>
+        <v>-139.38200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>51076.122149</v>
+        <v>51076.122149000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.187812</v>
+        <v>14.187811999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1296.680000</v>
+        <v>1296.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.352000</v>
+        <v>-222.352</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>51087.023223</v>
+        <v>51087.023222999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>14.190840</v>
+        <v>14.19084</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.060000</v>
+        <v>1367.06</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.214000</v>
+        <v>-360.214</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>51097.837993</v>
+        <v>51097.837993000001</v>
       </c>
       <c r="BO17" s="1">
         <v>14.193844</v>
       </c>
       <c r="BP17" s="1">
-        <v>1482.610000</v>
+        <v>1482.61</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-584.643000</v>
+        <v>-584.64300000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>51108.675081</v>
+        <v>51108.675081000001</v>
       </c>
       <c r="BT17" s="1">
         <v>14.196854</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.550000</v>
+        <v>1615.55</v>
       </c>
       <c r="BV17" s="1">
-        <v>-837.551000</v>
+        <v>-837.55100000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>51119.563787</v>
+        <v>51119.563786999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.199879</v>
+        <v>14.199878999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1769.950000</v>
+        <v>1769.95</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1113.210000</v>
+        <v>-1113.21</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>51132.019291</v>
+        <v>51132.019290999997</v>
       </c>
       <c r="CD17" s="1">
         <v>14.203339</v>
       </c>
       <c r="CE17" s="1">
-        <v>2193.730000</v>
+        <v>2193.73</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1778.210000</v>
+        <v>-1778.21</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>50960.614349</v>
+        <v>50960.614349000003</v>
       </c>
       <c r="B18" s="1">
         <v>14.155726</v>
       </c>
       <c r="C18" s="1">
-        <v>1146.530000</v>
+        <v>1146.53</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.507000</v>
+        <v>-256.50700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>50971.053617</v>
+        <v>50971.053616999998</v>
       </c>
       <c r="G18" s="1">
         <v>14.158626</v>
       </c>
       <c r="H18" s="1">
-        <v>1168.360000</v>
+        <v>1168.3599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.032000</v>
+        <v>-215.03200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>50981.235491</v>
+        <v>50981.235490999999</v>
       </c>
       <c r="L18" s="1">
-        <v>14.161454</v>
+        <v>14.161454000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1196.050000</v>
+        <v>1196.05</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.817000</v>
+        <v>-149.81700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>50991.488821</v>
+        <v>50991.488820999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.164302</v>
+        <v>14.164301999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.680000</v>
+        <v>1203.68</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.691000</v>
+        <v>-127.691</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>51001.637965</v>
+        <v>51001.637965000002</v>
       </c>
       <c r="V18" s="1">
-        <v>14.167122</v>
+        <v>14.167122000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.700000</v>
+        <v>1210.7</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.864000</v>
+        <v>-106.864</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>51011.849066</v>
+        <v>51011.849066000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.169958</v>
+        <v>14.169957999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1218.100000</v>
+        <v>1218.0999999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.223000</v>
+        <v>-90.222999999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>51022.044829</v>
+        <v>51022.044828999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.172790</v>
+        <v>14.172790000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1222.670000</v>
+        <v>1222.67</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.882700</v>
+        <v>-85.8827</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>51032.262912</v>
+        <v>51032.262911999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.175629</v>
+        <v>14.175629000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.635500</v>
+        <v>-89.635499999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>51043.086144</v>
+        <v>51043.086144000001</v>
       </c>
       <c r="AP18" s="1">
         <v>14.178635</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.896000</v>
+        <v>-101.896</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>51054.176161</v>
+        <v>51054.176161000003</v>
       </c>
       <c r="AU18" s="1">
         <v>14.181716</v>
       </c>
       <c r="AV18" s="1">
-        <v>1247.630000</v>
+        <v>1247.6300000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.611000</v>
+        <v>-121.611</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>51065.443282</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.184845</v>
+        <v>14.184844999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1256.170000</v>
+        <v>1256.17</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.393000</v>
+        <v>-139.393</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>51076.531349</v>
+        <v>51076.531348999997</v>
       </c>
       <c r="BE18" s="1">
         <v>14.187925</v>
       </c>
       <c r="BF18" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.334000</v>
+        <v>-222.334</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>51087.475078</v>
+        <v>51087.475078000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.190965</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.209000</v>
+        <v>-360.209</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>51098.249672</v>
+        <v>51098.249671999998</v>
       </c>
       <c r="BO18" s="1">
         <v>14.193958</v>
       </c>
       <c r="BP18" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-584.609000</v>
+        <v>-584.60900000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>51109.102137</v>
+        <v>51109.102137000002</v>
       </c>
       <c r="BT18" s="1">
         <v>14.196973</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.590000</v>
+        <v>1615.59</v>
       </c>
       <c r="BV18" s="1">
-        <v>-837.619000</v>
+        <v>-837.61900000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>51119.992300</v>
+        <v>51119.992299999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.199998</v>
+        <v>14.199998000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.060000</v>
+        <v>1770.06</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1113.010000</v>
+        <v>-1113.01</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>51132.567900</v>
+        <v>51132.567900000002</v>
       </c>
       <c r="CD18" s="1">
         <v>14.203491</v>
       </c>
       <c r="CE18" s="1">
-        <v>2193.780000</v>
+        <v>2193.7800000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1779.580000</v>
+        <v>-1779.58</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>50960.957087</v>
+        <v>50960.957087000003</v>
       </c>
       <c r="B19" s="1">
         <v>14.155821</v>
       </c>
       <c r="C19" s="1">
-        <v>1146.720000</v>
+        <v>1146.72</v>
       </c>
       <c r="D19" s="1">
-        <v>-256.090000</v>
+        <v>-256.08999999999997</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>50971.397379</v>
+        <v>50971.397379000002</v>
       </c>
       <c r="G19" s="1">
         <v>14.158721</v>
       </c>
       <c r="H19" s="1">
-        <v>1168.890000</v>
+        <v>1168.8900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.277000</v>
+        <v>-215.27699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>50981.579743</v>
+        <v>50981.579743000002</v>
       </c>
       <c r="L19" s="1">
-        <v>14.161550</v>
+        <v>14.16155</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.920000</v>
+        <v>1195.92</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.642000</v>
+        <v>-149.642</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>50992.184215</v>
+        <v>50992.184215000001</v>
       </c>
       <c r="Q19" s="1">
         <v>14.164496</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.720000</v>
+        <v>-127.72</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>51002.325382</v>
+        <v>51002.325382000003</v>
       </c>
       <c r="V19" s="1">
         <v>14.167313</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.720000</v>
+        <v>1210.72</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.119000</v>
+        <v>-107.119</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>51012.203209</v>
+        <v>51012.203208999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.170056</v>
+        <v>14.170056000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1218.120000</v>
+        <v>1218.1199999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.163900</v>
+        <v>-90.163899999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>51022.386075</v>
+        <v>51022.386075000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.172885</v>
+        <v>14.172885000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1222.650000</v>
+        <v>1222.6500000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.945100</v>
+        <v>-85.945099999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>51032.612125</v>
       </c>
       <c r="AK19" s="1">
-        <v>14.175726</v>
+        <v>14.175725999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.612800</v>
+        <v>-89.612799999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>51043.749811</v>
+        <v>51043.749811000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.178819</v>
+        <v>14.178819000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.908000</v>
+        <v>-101.908</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>51054.926113</v>
+        <v>51054.926113000001</v>
       </c>
       <c r="AU19" s="1">
         <v>14.181924</v>
       </c>
       <c r="AV19" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.644000</v>
+        <v>-121.64400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>51065.891667</v>
+        <v>51065.891667000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.184970</v>
+        <v>14.18497</v>
       </c>
       <c r="BA19" s="1">
-        <v>1256.170000</v>
+        <v>1256.17</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.370000</v>
+        <v>-139.37</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>51076.922195</v>
+        <v>51076.922194999999</v>
       </c>
       <c r="BE19" s="1">
         <v>14.188034</v>
       </c>
       <c r="BF19" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.306000</v>
+        <v>-222.30600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>51087.878325</v>
+        <v>51087.878324999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>14.191077</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.070000</v>
+        <v>1367.07</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.267000</v>
+        <v>-360.267</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>51098.646007</v>
+        <v>51098.646007000003</v>
       </c>
       <c r="BO19" s="1">
         <v>14.194068</v>
       </c>
       <c r="BP19" s="1">
-        <v>1482.610000</v>
+        <v>1482.61</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-584.652000</v>
+        <v>-584.65200000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>51109.527451</v>
+        <v>51109.527451000002</v>
       </c>
       <c r="BT19" s="1">
         <v>14.197091</v>
       </c>
       <c r="BU19" s="1">
-        <v>1615.540000</v>
+        <v>1615.54</v>
       </c>
       <c r="BV19" s="1">
-        <v>-837.570000</v>
+        <v>-837.57</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>51120.415882</v>
+        <v>51120.415882000001</v>
       </c>
       <c r="BY19" s="1">
         <v>14.200116</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.700000</v>
+        <v>1769.7</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1113.050000</v>
+        <v>-1113.05</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>51133.100571</v>
+        <v>51133.100571000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.203639</v>
+        <v>14.203639000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2192.900000</v>
+        <v>2192.9</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1778.440000</v>
+        <v>-1778.44</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>50961.298300</v>
+        <v>50961.298300000002</v>
       </c>
       <c r="B20" s="1">
-        <v>14.155916</v>
+        <v>14.155915999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1146.660000</v>
+        <v>1146.6600000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.593000</v>
+        <v>-256.59300000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>50972.085822</v>
+        <v>50972.085822000001</v>
       </c>
       <c r="G20" s="1">
         <v>14.158913</v>
       </c>
       <c r="H20" s="1">
-        <v>1168.040000</v>
+        <v>1168.04</v>
       </c>
       <c r="I20" s="1">
-        <v>-214.755000</v>
+        <v>-214.755</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>50982.272129</v>
+        <v>50982.272128999997</v>
       </c>
       <c r="L20" s="1">
         <v>14.161742</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.940000</v>
+        <v>1195.94</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.482000</v>
+        <v>-149.482</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>50992.535347</v>
+        <v>50992.535346999997</v>
       </c>
       <c r="Q20" s="1">
         <v>14.164593</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.724000</v>
+        <v>-127.724</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>51002.669607</v>
+        <v>51002.669607000003</v>
       </c>
       <c r="V20" s="1">
         <v>14.167408</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.988000</v>
+        <v>-106.988</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>51012.549914</v>
+        <v>51012.549914000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>14.170153</v>
+        <v>14.170153000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1218.130000</v>
+        <v>1218.1300000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.208000</v>
+        <v>-90.207999999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>51023.038812</v>
+        <v>51023.038811999999</v>
       </c>
       <c r="AF20" s="1">
         <v>14.173066</v>
       </c>
       <c r="AG20" s="1">
-        <v>1222.630000</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.912700</v>
+        <v>-85.912700000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>51033.270781</v>
+        <v>51033.270780999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>14.175909</v>
+        <v>14.175909000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1229.680000</v>
+        <v>1229.68</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.609700</v>
+        <v>-89.609700000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>51044.204126</v>
+        <v>51044.204125999997</v>
       </c>
       <c r="AP20" s="1">
         <v>14.178946</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.888000</v>
+        <v>-101.88800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>51055.268859</v>
+        <v>51055.268859000003</v>
       </c>
       <c r="AU20" s="1">
         <v>14.182019</v>
       </c>
       <c r="AV20" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.660000</v>
+        <v>-121.66</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>51066.251298</v>
+        <v>51066.251298000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>14.185070</v>
+        <v>14.18507</v>
       </c>
       <c r="BA20" s="1">
-        <v>1256.160000</v>
+        <v>1256.1600000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.397000</v>
+        <v>-139.39699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>51077.281827</v>
+        <v>51077.281826999999</v>
       </c>
       <c r="BE20" s="1">
         <v>14.188134</v>
       </c>
       <c r="BF20" s="1">
-        <v>1296.670000</v>
+        <v>1296.67</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.333000</v>
+        <v>-222.333</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>51088.252309</v>
+        <v>51088.252309000003</v>
       </c>
       <c r="BJ20" s="1">
         <v>14.191181</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.060000</v>
+        <v>1367.06</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.246000</v>
+        <v>-360.24599999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>51099.066583</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.194185</v>
+        <v>14.194184999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1482.610000</v>
+        <v>1482.61</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-584.644000</v>
+        <v>-584.64400000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>51109.943848</v>
+        <v>51109.943848000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.197207</v>
+        <v>14.197207000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1615.510000</v>
+        <v>1615.51</v>
       </c>
       <c r="BV20" s="1">
-        <v>-837.636000</v>
+        <v>-837.63599999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>51120.836491</v>
+        <v>51120.836491000002</v>
       </c>
       <c r="BY20" s="1">
         <v>14.200232</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.950000</v>
+        <v>1769.95</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1113.040000</v>
+        <v>-1113.04</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>51133.616444</v>
+        <v>51133.616443999999</v>
       </c>
       <c r="CD20" s="1">
         <v>14.203782</v>
       </c>
       <c r="CE20" s="1">
-        <v>2193.850000</v>
+        <v>2193.85</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1778.760000</v>
+        <v>-1778.76</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>50961.979805</v>
+        <v>50961.979805000003</v>
       </c>
       <c r="B21" s="1">
-        <v>14.156106</v>
+        <v>14.156105999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1146.990000</v>
+        <v>1146.99</v>
       </c>
       <c r="D21" s="1">
-        <v>-256.255000</v>
+        <v>-256.255</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>50972.429023</v>
+        <v>50972.429022999997</v>
       </c>
       <c r="G21" s="1">
         <v>14.159008</v>
       </c>
       <c r="H21" s="1">
-        <v>1168.590000</v>
+        <v>1168.5899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.592000</v>
+        <v>-215.59200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>50982.616849</v>
+        <v>50982.616848999998</v>
       </c>
       <c r="L21" s="1">
-        <v>14.161838</v>
+        <v>14.161837999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.960000</v>
+        <v>1195.96</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.563000</v>
+        <v>-149.56299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>50992.881591</v>
+        <v>50992.881590999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.164689</v>
+        <v>14.164688999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.610000</v>
+        <v>1203.6099999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.637000</v>
+        <v>-127.637</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>51003.018293</v>
+        <v>51003.018293000001</v>
       </c>
       <c r="V21" s="1">
         <v>14.167505</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.860000</v>
+        <v>1210.8599999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.108000</v>
+        <v>-107.108</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>51013.207144</v>
@@ -5439,270 +5855,270 @@
         <v>14.170335</v>
       </c>
       <c r="AB21" s="1">
-        <v>1218.050000</v>
+        <v>1218.05</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.171700</v>
+        <v>-90.171700000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>51023.414779</v>
+        <v>51023.414778999999</v>
       </c>
       <c r="AF21" s="1">
         <v>14.173171</v>
       </c>
       <c r="AG21" s="1">
-        <v>1222.670000</v>
+        <v>1222.67</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.920700</v>
+        <v>-85.920699999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>51033.658654</v>
+        <v>51033.658653999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.176016</v>
+        <v>14.176016000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.601700</v>
+        <v>-89.601699999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>51044.566316</v>
+        <v>51044.566315999997</v>
       </c>
       <c r="AP21" s="1">
         <v>14.179046</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.865000</v>
+        <v>-101.86499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>51055.633904</v>
+        <v>51055.633904000002</v>
       </c>
       <c r="AU21" s="1">
         <v>14.182121</v>
       </c>
       <c r="AV21" s="1">
-        <v>1247.610000</v>
+        <v>1247.6099999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.635000</v>
+        <v>-121.63500000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>51066.611858</v>
+        <v>51066.611857999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.185170</v>
+        <v>14.185169999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1256.150000</v>
+        <v>1256.1500000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.374000</v>
+        <v>-139.374</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>51077.701448</v>
       </c>
       <c r="BE21" s="1">
-        <v>14.188250</v>
+        <v>14.18825</v>
       </c>
       <c r="BF21" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.304000</v>
+        <v>-222.304</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>51088.727490</v>
+        <v>51088.727489999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>14.191313</v>
+        <v>14.191312999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.000000</v>
+        <v>1367</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.258000</v>
+        <v>-360.25799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>51099.460903</v>
+        <v>51099.460902999999</v>
       </c>
       <c r="BO21" s="1">
         <v>14.194295</v>
       </c>
       <c r="BP21" s="1">
-        <v>1482.610000</v>
+        <v>1482.61</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-584.572000</v>
+        <v>-584.572</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>51110.374408</v>
+        <v>51110.374408000003</v>
       </c>
       <c r="BT21" s="1">
         <v>14.197326</v>
       </c>
       <c r="BU21" s="1">
-        <v>1615.480000</v>
+        <v>1615.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-837.739000</v>
+        <v>-837.73900000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>51121.264537</v>
+        <v>51121.264537000003</v>
       </c>
       <c r="BY21" s="1">
         <v>14.200351</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1769.990000</v>
+        <v>1769.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1112.960000</v>
+        <v>-1112.96</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>51134.169977</v>
+        <v>51134.169976999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.203936</v>
+        <v>14.203936000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2193.600000</v>
+        <v>2193.6</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1780.150000</v>
+        <v>-1780.15</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>50962.326508</v>
+        <v>50962.326507999998</v>
       </c>
       <c r="B22" s="1">
         <v>14.156202</v>
       </c>
       <c r="C22" s="1">
-        <v>1147.010000</v>
+        <v>1147.01</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.488000</v>
+        <v>-256.488</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>50972.774269</v>
+        <v>50972.774269000001</v>
       </c>
       <c r="G22" s="1">
-        <v>14.159104</v>
+        <v>14.159103999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1167.380000</v>
+        <v>1167.3800000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.118000</v>
+        <v>-215.11799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>50982.961567</v>
+        <v>50982.961566999998</v>
       </c>
       <c r="L22" s="1">
         <v>14.161934</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.539000</v>
+        <v>-149.53899999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>50993.539774</v>
+        <v>50993.539773999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>14.164872</v>
+        <v>14.164872000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.660000</v>
+        <v>1203.6600000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.656000</v>
+        <v>-127.65600000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>51003.459250</v>
+        <v>51003.45925</v>
       </c>
       <c r="V22" s="1">
-        <v>14.167628</v>
+        <v>14.167628000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.800000</v>
+        <v>1210.8</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.945000</v>
+        <v>-106.94499999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>51013.595480</v>
+        <v>51013.595480000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.170443</v>
+        <v>14.170443000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.200000</v>
+        <v>1218.2</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.187200</v>
+        <v>-90.187200000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>51023.758016</v>
@@ -5711,270 +6127,270 @@
         <v>14.173266</v>
       </c>
       <c r="AG22" s="1">
-        <v>1222.660000</v>
+        <v>1222.6600000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.945300</v>
+        <v>-85.945300000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>51034.005885</v>
+        <v>51034.005884999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>14.176113</v>
+        <v>14.176113000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.627000</v>
+        <v>-89.626999999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>51044.923791</v>
+        <v>51044.923791000001</v>
       </c>
       <c r="AP22" s="1">
         <v>14.179145</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.902000</v>
+        <v>-101.902</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>51056.050575</v>
+        <v>51056.050575000001</v>
       </c>
       <c r="AU22" s="1">
         <v>14.182236</v>
       </c>
       <c r="AV22" s="1">
-        <v>1247.630000</v>
+        <v>1247.6300000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.639000</v>
+        <v>-121.639</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>51067.038912</v>
+        <v>51067.038912000004</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.185289</v>
+        <v>14.185288999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.140000</v>
+        <v>1256.1400000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.374000</v>
+        <v>-139.374</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>51078.004498</v>
+        <v>51078.004498000002</v>
       </c>
       <c r="BE22" s="1">
         <v>14.188335</v>
       </c>
       <c r="BF22" s="1">
-        <v>1296.630000</v>
+        <v>1296.6300000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.321000</v>
+        <v>-222.321</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>51089.040453</v>
+        <v>51089.040453000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.191400</v>
+        <v>14.1914</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.242000</v>
+        <v>-360.24200000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>51099.882533</v>
+        <v>51099.882533000004</v>
       </c>
       <c r="BO22" s="1">
         <v>14.194412</v>
       </c>
       <c r="BP22" s="1">
-        <v>1482.550000</v>
+        <v>1482.55</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-584.647000</v>
+        <v>-584.64700000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>51110.785064</v>
+        <v>51110.785064000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>14.197440</v>
+        <v>14.19744</v>
       </c>
       <c r="BU22" s="1">
-        <v>1615.510000</v>
+        <v>1615.51</v>
       </c>
       <c r="BV22" s="1">
-        <v>-837.670000</v>
+        <v>-837.67</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>51121.679688</v>
+        <v>51121.679687999997</v>
       </c>
       <c r="BY22" s="1">
         <v>14.200467</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.070000</v>
+        <v>1770.07</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1112.910000</v>
+        <v>-1112.9100000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>51134.699708</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.204083</v>
+        <v>14.204083000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.880000</v>
+        <v>2192.88</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1778.180000</v>
+        <v>-1778.18</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>50962.668252</v>
+        <v>50962.668252000003</v>
       </c>
       <c r="B23" s="1">
         <v>14.156297</v>
       </c>
       <c r="C23" s="1">
-        <v>1146.660000</v>
+        <v>1146.6600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.336000</v>
+        <v>-256.33600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>50973.419074</v>
+        <v>50973.419073999998</v>
       </c>
       <c r="G23" s="1">
         <v>14.159283</v>
       </c>
       <c r="H23" s="1">
-        <v>1168.620000</v>
+        <v>1168.6199999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.282000</v>
+        <v>-215.28200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>50983.607884</v>
+        <v>50983.607883999997</v>
       </c>
       <c r="L23" s="1">
         <v>14.162113</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.790000</v>
+        <v>1195.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.434000</v>
+        <v>-149.434</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>50993.929633</v>
       </c>
       <c r="Q23" s="1">
-        <v>14.164980</v>
+        <v>14.16498</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.640000</v>
+        <v>1203.6400000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.706000</v>
+        <v>-127.706</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>51003.725589</v>
+        <v>51003.725589000001</v>
       </c>
       <c r="V23" s="1">
         <v>14.167702</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.051000</v>
+        <v>-107.051</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>51013.944695</v>
+        <v>51013.944694999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>14.170540</v>
+        <v>14.170540000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.090000</v>
+        <v>1218.0899999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.291000</v>
+        <v>-90.290999999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>51024.106201</v>
+        <v>51024.106201000002</v>
       </c>
       <c r="AF23" s="1">
         <v>14.173363</v>
       </c>
       <c r="AG23" s="1">
-        <v>1222.620000</v>
+        <v>1222.6199999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.899000</v>
+        <v>-85.899000000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>51034.351596</v>
@@ -5983,921 +6399,922 @@
         <v>14.176209</v>
       </c>
       <c r="AL23" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.599600</v>
+        <v>-89.599599999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>51045.337485</v>
+        <v>51045.337484999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.179260</v>
+        <v>14.179259999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>51056.362528</v>
+        <v>51056.362527999998</v>
       </c>
       <c r="AU23" s="1">
         <v>14.182323</v>
       </c>
       <c r="AV23" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.634000</v>
+        <v>-121.634</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>51067.330105</v>
+        <v>51067.330105000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>14.185369</v>
       </c>
       <c r="BA23" s="1">
-        <v>1256.180000</v>
+        <v>1256.18</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.394000</v>
+        <v>-139.39400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>51078.367041</v>
+        <v>51078.367040999998</v>
       </c>
       <c r="BE23" s="1">
         <v>14.188435</v>
       </c>
       <c r="BF23" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.317000</v>
+        <v>-222.31700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>51089.419395</v>
+        <v>51089.419394999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.191505</v>
+        <v>14.191504999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.186000</v>
+        <v>-360.18599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>51100.280790</v>
+        <v>51100.280789999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.194522</v>
+        <v>14.194521999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-584.611000</v>
+        <v>-584.61099999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>51111.217078</v>
+        <v>51111.217078000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>14.197560</v>
+        <v>14.197559999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1615.480000</v>
+        <v>1615.48</v>
       </c>
       <c r="BV23" s="1">
-        <v>-837.693000</v>
+        <v>-837.69299999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>51122.126584</v>
+        <v>51122.126583999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.200591</v>
+        <v>14.200590999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1769.990000</v>
+        <v>1769.99</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1112.870000</v>
+        <v>-1112.8699999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>51135.217000</v>
+        <v>51135.216999999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.204227</v>
+        <v>14.204226999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2191.550000</v>
+        <v>2191.5500000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1778.800000</v>
+        <v>-1778.8</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>50963.318050</v>
+        <v>50963.318050000002</v>
       </c>
       <c r="B24" s="1">
-        <v>14.156477</v>
+        <v>14.156477000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1146.890000</v>
+        <v>1146.8900000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.477000</v>
+        <v>-256.47699999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>50973.811376</v>
+        <v>50973.811375999998</v>
       </c>
       <c r="G24" s="1">
         <v>14.159392</v>
       </c>
       <c r="H24" s="1">
-        <v>1168.130000</v>
+        <v>1168.1300000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-214.644000</v>
+        <v>-214.64400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>50983.999694</v>
+        <v>50983.999693999998</v>
       </c>
       <c r="L24" s="1">
         <v>14.162222</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.760000</v>
+        <v>1195.76</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.785000</v>
+        <v>-149.785</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>50994.277794</v>
+        <v>50994.277794000001</v>
       </c>
       <c r="Q24" s="1">
         <v>14.165077</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.660000</v>
+        <v>1203.6600000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.749000</v>
+        <v>-127.749</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>51004.071797</v>
+        <v>51004.071796999997</v>
       </c>
       <c r="V24" s="1">
-        <v>14.167798</v>
+        <v>14.167797999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.124000</v>
+        <v>-107.124</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>51014.293880</v>
+        <v>51014.293879999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.170637</v>
+        <v>14.170636999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1218.060000</v>
+        <v>1218.06</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.133000</v>
+        <v>-90.132999999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>51024.530282</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.173481</v>
+        <v>14.173481000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1222.630000</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.939000</v>
+        <v>-85.938999999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>51034.767212</v>
+        <v>51034.767211999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.176324</v>
+        <v>14.176323999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.610700</v>
+        <v>-89.610699999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>51045.641538</v>
+        <v>51045.641538000003</v>
       </c>
       <c r="AP24" s="1">
         <v>14.179345</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.921000</v>
+        <v>-101.92100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>51056.732046</v>
+        <v>51056.732045999997</v>
       </c>
       <c r="AU24" s="1">
         <v>14.182426</v>
       </c>
       <c r="AV24" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.617000</v>
+        <v>-121.617</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>51067.688213</v>
+        <v>51067.688213000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>14.185469</v>
+        <v>14.185468999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1256.160000</v>
+        <v>1256.1600000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.371000</v>
+        <v>-139.37100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>51078.723698</v>
+        <v>51078.723698000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.188534</v>
+        <v>14.188534000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1296.700000</v>
+        <v>1296.7</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.313000</v>
+        <v>-222.31299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>51090.170835</v>
+        <v>51090.170834999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.191714</v>
+        <v>14.191713999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.215000</v>
+        <v>-360.21499999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>51100.702884</v>
+        <v>51100.702883999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.194640</v>
+        <v>14.19464</v>
       </c>
       <c r="BP24" s="1">
-        <v>1482.570000</v>
+        <v>1482.57</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-584.604000</v>
+        <v>-584.60400000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>51111.644670</v>
+        <v>51111.644670000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.197679</v>
+        <v>14.197679000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1615.530000</v>
+        <v>1615.53</v>
       </c>
       <c r="BV24" s="1">
-        <v>-837.739000</v>
+        <v>-837.73900000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>51122.549175</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.200708</v>
+        <v>14.200708000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.110000</v>
+        <v>1770.11</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1112.960000</v>
+        <v>-1112.96</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>51135.737799</v>
+        <v>51135.737799000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.204372</v>
+        <v>14.204371999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.770000</v>
+        <v>2191.77</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1780.780000</v>
+        <v>-1780.78</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>50963.690361</v>
+        <v>50963.690361000001</v>
       </c>
       <c r="B25" s="1">
-        <v>14.156581</v>
+        <v>14.156580999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1146.960000</v>
+        <v>1146.96</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.350000</v>
+        <v>-256.35000000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>50974.156093</v>
+        <v>50974.156092999998</v>
       </c>
       <c r="G25" s="1">
         <v>14.159488</v>
       </c>
       <c r="H25" s="1">
-        <v>1168.320000</v>
+        <v>1168.32</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.419000</v>
+        <v>-215.41900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>50984.345901</v>
+        <v>50984.345901000001</v>
       </c>
       <c r="L25" s="1">
-        <v>14.162318</v>
+        <v>14.162318000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.930000</v>
+        <v>1195.93</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.419000</v>
+        <v>-149.41900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>50994.628000</v>
+        <v>50994.627999999997</v>
       </c>
       <c r="Q25" s="1">
         <v>14.165174</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.630000</v>
+        <v>1203.6300000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.675000</v>
+        <v>-127.675</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>51004.493396</v>
+        <v>51004.493395999998</v>
       </c>
       <c r="V25" s="1">
-        <v>14.167915</v>
+        <v>14.167915000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.850000</v>
+        <v>1210.8499999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.032000</v>
+        <v>-107.032</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>51014.708999</v>
+        <v>51014.708999000002</v>
       </c>
       <c r="AA25" s="1">
         <v>14.170752</v>
       </c>
       <c r="AB25" s="1">
-        <v>1218.010000</v>
+        <v>1218.01</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.259600</v>
+        <v>-90.259600000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>51024.819944</v>
+        <v>51024.819944000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.173561</v>
+        <v>14.173560999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1222.630000</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.850200</v>
+        <v>-85.850200000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>51035.061352</v>
+        <v>51035.061351999997</v>
       </c>
       <c r="AK25" s="1">
         <v>14.176406</v>
       </c>
       <c r="AL25" s="1">
-        <v>1229.650000</v>
+        <v>1229.6500000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.625900</v>
+        <v>-89.625900000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>51046.001634</v>
       </c>
       <c r="AP25" s="1">
-        <v>14.179445</v>
+        <v>14.179444999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.901000</v>
+        <v>-101.901</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>51057.095118</v>
+        <v>51057.095117999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>14.182526</v>
+        <v>14.182525999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1247.630000</v>
+        <v>1247.6300000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.623000</v>
+        <v>-121.623</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>51068.047775</v>
+        <v>51068.047774999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>14.185569</v>
+        <v>14.185568999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1256.170000</v>
+        <v>1256.17</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.368000</v>
+        <v>-139.36799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>51079.449312</v>
+        <v>51079.449311999997</v>
       </c>
       <c r="BE25" s="1">
         <v>14.188736</v>
       </c>
       <c r="BF25" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.301000</v>
+        <v>-222.30099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>51090.545594</v>
+        <v>51090.545594000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.191818</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.246000</v>
+        <v>-360.24599999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>51101.099683</v>
       </c>
       <c r="BO25" s="1">
-        <v>14.194750</v>
+        <v>14.194750000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1482.600000</v>
+        <v>1482.6</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-584.612000</v>
+        <v>-584.61199999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>51112.054854</v>
+        <v>51112.054854000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.197793</v>
+        <v>14.197793000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1615.430000</v>
+        <v>1615.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-837.792000</v>
+        <v>-837.79200000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>51123.285735</v>
+        <v>51123.285734999998</v>
       </c>
       <c r="BY25" s="1">
         <v>14.200913</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.920000</v>
+        <v>1769.92</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1113.050000</v>
+        <v>-1113.05</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>51136.560165</v>
+        <v>51136.560165000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.204600</v>
+        <v>14.204599999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2193.750000</v>
+        <v>2193.75</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1779.800000</v>
+        <v>-1779.8</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>50964.035226</v>
       </c>
       <c r="B26" s="1">
-        <v>14.156676</v>
+        <v>14.156675999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1146.760000</v>
+        <v>1146.76</v>
       </c>
       <c r="D26" s="1">
-        <v>-256.302000</v>
+        <v>-256.30200000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>50974.500812</v>
+        <v>50974.500811999998</v>
       </c>
       <c r="G26" s="1">
-        <v>14.159584</v>
+        <v>14.159584000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1168.380000</v>
+        <v>1168.3800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.155000</v>
+        <v>-215.155</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>50984.693138</v>
+        <v>50984.693138000002</v>
       </c>
       <c r="L26" s="1">
-        <v>14.162415</v>
+        <v>14.162414999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.920000</v>
+        <v>1195.92</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.457000</v>
+        <v>-149.45699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>50995.051055</v>
+        <v>50995.051055000004</v>
       </c>
       <c r="Q26" s="1">
-        <v>14.165292</v>
+        <v>14.165292000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.670000</v>
+        <v>1203.67</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.704000</v>
+        <v>-127.70399999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>51004.768707</v>
+        <v>51004.768707000003</v>
       </c>
       <c r="V26" s="1">
-        <v>14.167991</v>
+        <v>14.167991000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.760000</v>
+        <v>1210.76</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.051000</v>
+        <v>-107.051</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>51015.004149</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.170834</v>
+        <v>14.170833999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.140000</v>
+        <v>1218.1400000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.195600</v>
+        <v>-90.195599999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>51025.164200</v>
+        <v>51025.164199999999</v>
       </c>
       <c r="AF26" s="1">
         <v>14.173657</v>
       </c>
       <c r="AG26" s="1">
-        <v>1222.650000</v>
+        <v>1222.6500000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.939300</v>
+        <v>-85.939300000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>51035.408539</v>
+        <v>51035.408538999996</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.176502</v>
+        <v>14.176501999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.615400</v>
+        <v>-89.615399999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>51046.366157</v>
+        <v>51046.366156999997</v>
       </c>
       <c r="AP26" s="1">
         <v>14.179546</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.898000</v>
+        <v>-101.898</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>51057.822749</v>
+        <v>51057.822748999999</v>
       </c>
       <c r="AU26" s="1">
         <v>14.182729</v>
       </c>
       <c r="AV26" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.651000</v>
+        <v>-121.651</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>51068.763503</v>
+        <v>51068.763503000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>14.185768</v>
+        <v>14.185767999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1256.170000</v>
+        <v>1256.17</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.382000</v>
+        <v>-139.38200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>51079.810895</v>
+        <v>51079.810895000002</v>
       </c>
       <c r="BE26" s="1">
         <v>14.188836</v>
       </c>
       <c r="BF26" s="1">
-        <v>1296.690000</v>
+        <v>1296.69</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.307000</v>
+        <v>-222.30699999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>51090.918305</v>
+        <v>51090.918304999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>14.191922</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.208000</v>
+        <v>-360.20800000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>51101.518840</v>
+        <v>51101.518839999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>14.194866</v>
+        <v>14.194865999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1482.610000</v>
+        <v>1482.61</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-584.567000</v>
+        <v>-584.56700000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>51112.797828</v>
+        <v>51112.797828000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>14.197999</v>
+        <v>14.197998999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1615.600000</v>
+        <v>1615.6</v>
       </c>
       <c r="BV26" s="1">
-        <v>-837.738000</v>
+        <v>-837.73800000000006</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>51123.451923</v>
+        <v>51123.451923000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.200959</v>
+        <v>14.200958999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1769.940000</v>
+        <v>1769.94</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1113.070000</v>
+        <v>-1113.07</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>51136.772948</v>
+        <v>51136.772947999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.204659</v>
+        <v>14.204658999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2192.810000</v>
+        <v>2192.81</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1778.370000</v>
+        <v>-1778.37</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>